--- a/hourly datasets/cap_gen_year19final.xlsx
+++ b/hourly datasets/cap_gen_year19final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.111193510970626</v>
+        <v>0.09809395674285802</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0004741665548712925</v>
+        <v>0.002096585386780465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002828290772226876</v>
+        <v>0.0006433701386290832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.313757887375578</v>
+        <v>2.479265742663204</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1904315140253162</v>
+        <v>0.05622613508614493</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00506928210332781</v>
+        <v>0.0008355991004943173</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006017615213070393</v>
+        <v>0.003357571673066612</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1116676775254973</v>
+        <v>0.1001905421296385</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003390224727438203</v>
+        <v>0.003736332474924525</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006003211494797582</v>
+        <v>0.001444033473920208</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8758420153605785</v>
+        <v>1.668123128662512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1321302789199196</v>
+        <v>0.0665154353468555</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01142728628740052</v>
+        <v>0.0009060699831735727</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01210533123288816</v>
+        <v>0.006566594966675479</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1115325334433698</v>
+        <v>0.1018302892177825</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008152215526771438</v>
+        <v>0.01125870718517311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004346313866740005</v>
+        <v>0.003344418885552435</v>
       </c>
       <c r="D5" t="n">
-        <v>1.535576761031219</v>
+        <v>3.517001549289796</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09037531253060994</v>
+        <v>0.09458201444407748</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0003665560198053891</v>
+        <v>0.004703745370455524</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01667098707334827</v>
+        <v>0.0178136689998907</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1193457264973974</v>
+        <v>0.1093526639280311</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005136082713559535</v>
+        <v>0.003594862653061924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003432754947119288</v>
+        <v>0.004248607003150161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.131782945988467</v>
+        <v>-1.181590339607812</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06866693656949518</v>
+        <v>0.07375754654773362</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00159210819382152</v>
+        <v>-0.004732281695297018</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01186427362094059</v>
+        <v>0.01192200700142087</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1163295936841855</v>
+        <v>0.1016888193959199</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01008126183005747</v>
+        <v>0.00876852859107111</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003097407002107137</v>
+        <v>0.004894371280356733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9209974151191046</v>
+        <v>0.8227831804600985</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04412320150213404</v>
+        <v>0.110605291553067</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004010356562244288</v>
+        <v>-0.0008242938031011805</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01615216709787065</v>
+        <v>0.0183613509852434</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1212747728006835</v>
+        <v>0.1068624853339291</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005923836320962788</v>
+        <v>0.009869480978140737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002390383868230835</v>
+        <v>0.004837372719276076</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7986534246824125</v>
+        <v>1.692786369697473</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05234500154002159</v>
+        <v>0.1208621064108152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001238692772555745</v>
+        <v>0.0003883746541285667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01060897986936983</v>
+        <v>0.0193505873021529</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1171173472915888</v>
+        <v>0.1079634377209988</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005546349196467904</v>
+        <v>0.005933409132903259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002159580107901504</v>
+        <v>0.007215175663447918</v>
       </c>
       <c r="D9" t="n">
-        <v>1.067863781746029</v>
+        <v>2.992229391224369</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04556839158816045</v>
+        <v>0.1347819007092562</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001313577275513149</v>
+        <v>-0.008208119123971964</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009779121117422658</v>
+        <v>0.02007493738977849</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1167398601670939</v>
+        <v>0.1040273658757613</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.111193510970626</v>
+        <v>-0.09809395674285802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001747309552769988</v>
+        <v>0.00049680731378803</v>
       </c>
       <c r="D10" t="n">
-        <v>-107.3213321897838</v>
+        <v>-218.1829518639617</v>
       </c>
       <c r="E10" t="n">
-        <v>6.240069615037141e-06</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1146182345502918</v>
+        <v>-0.09906768426841009</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1077687873909601</v>
+        <v>-0.09712022921730593</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04931037562210946</v>
+        <v>-0.04484420884934058</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001915884588722175</v>
+        <v>0.0008301602795880798</v>
       </c>
       <c r="D11" t="n">
-        <v>-41.84612147318757</v>
+        <v>-87.99768868286277</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01357509912150764</v>
+        <v>1.904552713363108e-10</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05306551251157064</v>
+        <v>-0.04647133533187821</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04555523873264831</v>
+        <v>-0.04321708236680295</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06188313534851651</v>
+        <v>0.05324974789351744</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.039835060600139</v>
+        <v>-0.03397284502487496</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00181053245943713</v>
+        <v>0.0006861649245026288</v>
       </c>
       <c r="D12" t="n">
-        <v>-38.13729421214396</v>
+        <v>-79.10198495644318</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01239567029609523</v>
+        <v>1.946797866040948e-35</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04338370505279435</v>
+        <v>-0.03531773000210383</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03628641614748368</v>
+        <v>-0.0326279600476461</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07135845037048698</v>
+        <v>0.06412111171798306</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03431179801873561</v>
+        <v>-0.0252342452223311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001795710866753857</v>
+        <v>0.0006224580240111563</v>
       </c>
       <c r="D13" t="n">
-        <v>-32.50772058225272</v>
+        <v>-62.50428019951165</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01441111266042241</v>
+        <v>1.144723384872349e-29</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03783139102612691</v>
+        <v>-0.02645425907822476</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0307922050113443</v>
+        <v>-0.02401423136643743</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07688171295189036</v>
+        <v>0.07285971152052692</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02782799753272976</v>
+        <v>-0.02005534765890222</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001764668164474108</v>
+        <v>0.0006070190706090034</v>
       </c>
       <c r="D14" t="n">
-        <v>-27.48973753824677</v>
+        <v>-53.9503442550001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02640291531200703</v>
+        <v>1.840139101163723e-78</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03128674661728762</v>
+        <v>-0.02124510068313133</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02436924844817187</v>
+        <v>-0.01886559463467309</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08336551343789622</v>
+        <v>0.07803860908395581</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02369730152124881</v>
+        <v>-0.01569468220469097</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001737131194463132</v>
+        <v>0.0005962386375099735</v>
       </c>
       <c r="D15" t="n">
-        <v>-23.38085357500204</v>
+        <v>-44.27123054175959</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03193495466059985</v>
+        <v>1.317155125655248e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02710207810607769</v>
+        <v>-0.01686330590226877</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02029252493641992</v>
+        <v>-0.01452605850711317</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08749620944937717</v>
+        <v>0.08239927453816706</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02190552323916012</v>
+        <v>-0.01460480334155488</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001752585221060145</v>
+        <v>0.0005951079454677329</v>
       </c>
       <c r="D16" t="n">
-        <v>-21.72631609354727</v>
+        <v>-41.05663540327294</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01193652833730603</v>
+        <v>0.0001951048819665571</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0253405901527884</v>
+        <v>-0.01577121097624246</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01847045632553185</v>
+        <v>-0.0134383957068673</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08928798773146586</v>
+        <v>0.08348915340130314</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02176786665363495</v>
+        <v>-0.01479829100638238</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001769645608657814</v>
+        <v>0.0005985832914485713</v>
       </c>
       <c r="D17" t="n">
-        <v>-21.90401881143891</v>
+        <v>-42.76001157318437</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03478959912591343</v>
+        <v>3.141664115688989e-18</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02523637168774801</v>
+        <v>-0.01597150956612792</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01829936161952188</v>
+        <v>-0.01362507244663685</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08942564431699103</v>
+        <v>0.08329566573647564</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01902183893340927</v>
+        <v>-0.01180063871612091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001766340369547057</v>
+        <v>0.0006029509276619404</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.99414716219012</v>
+        <v>-34.50175945168449</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04247758411140409</v>
+        <v>1.681921628520686e-16</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02248386573475633</v>
+        <v>-0.01298241806673647</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01555981213206221</v>
+        <v>-0.01061885936550535</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09217167203721671</v>
+        <v>0.08629331802673711</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01655087089436874</v>
+        <v>-0.009701550481288632</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00177124703390381</v>
+        <v>0.0006019723660431902</v>
       </c>
       <c r="D19" t="n">
-        <v>-14.49769800754274</v>
+        <v>-27.72222570072581</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04905238233203306</v>
+        <v>0.04632732530615839</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02002251493139217</v>
+        <v>-0.01088141204016686</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01307922685734532</v>
+        <v>-0.008521688922410403</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09464264007625724</v>
+        <v>0.08839240626156938</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01342956614071309</v>
+        <v>-0.008032287878410796</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001784635717789662</v>
+        <v>0.0006145504994456182</v>
       </c>
       <c r="D20" t="n">
-        <v>-11.07269577094202</v>
+        <v>-22.61872265071058</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05996489092244219</v>
+        <v>6.71871974089773e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01692745190618764</v>
+        <v>-0.009236802584384711</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.009931680375238524</v>
+        <v>-0.006827773172436889</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09776394482991289</v>
+        <v>0.09006166886444722</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01017559240368776</v>
+        <v>-0.005584451525468486</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001797831988464491</v>
+        <v>0.0006400550324503538</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.729458553012687</v>
+        <v>-14.96043862262047</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08872456476367445</v>
+        <v>0.02277132466252779</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01369934295176497</v>
+        <v>-0.006838956609867467</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006651841855610556</v>
+        <v>-0.004329946441069502</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1010179185669382</v>
+        <v>0.09250950521738953</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006870942062934916</v>
+        <v>-0.002467335563972208</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001830811210713296</v>
+        <v>0.0007287223570986099</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.092106726931121</v>
+        <v>-8.604089954976807</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05627815761895713</v>
+        <v>0.04662833454583212</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0104593337017006</v>
+        <v>-0.003895637640006719</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.003282550424169237</v>
+        <v>-0.001039033487937697</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1043225689076911</v>
+        <v>0.09562662117888582</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006361941667718843</v>
+        <v>-0.00503613637582422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001800465458946203</v>
+        <v>0.0005112007405269867</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.645904477175371</v>
+        <v>-9.390414256769018</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0897641720914002</v>
+        <v>1.019289903783663e-08</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.009890850866638448</v>
+        <v>-0.006038074584400107</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002833032468799239</v>
+        <v>-0.004034198167248333</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1048315693029071</v>
+        <v>0.09305782036703381</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005598793562347645</v>
+        <v>-0.00415510939198079</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001861414432732094</v>
+        <v>0.0005077619555907203</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.619097702891359</v>
+        <v>-7.322245901547114</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07510534279882175</v>
+        <v>0.01834297707943118</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.009247162956265475</v>
+        <v>-0.005150307678227482</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001950424168429823</v>
+        <v>-0.003159911105734098</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1055947174082783</v>
+        <v>0.09393884735087724</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.003133056708224868</v>
+        <v>-0.002965001684836056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001835276560784991</v>
+        <v>0.0004984298957980975</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.490436759100263</v>
+        <v>-5.474408928284702</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07951082496468398</v>
+        <v>0.1234674631563146</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006730195536508857</v>
+        <v>-0.003941909419209885</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0004640821200591214</v>
+        <v>-0.001988093950462227</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1080604542624011</v>
+        <v>0.09512895505802196</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.008791703739829765</v>
+        <v>0.01689858836606458</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007656319020883774</v>
+        <v>0.001559237756845363</v>
       </c>
       <c r="D26" t="n">
-        <v>6.987903757140488</v>
+        <v>20.10854211153268</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02593461199236227</v>
+        <v>0.02323030177506833</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007291067565028066</v>
+        <v>0.01384252851717928</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01029233991463146</v>
+        <v>0.01995464821494989</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1199852147104557</v>
+        <v>0.1149925451089226</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year19final.xlsx
+++ b/hourly datasets/cap_gen_year19final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09809395674285802</v>
+        <v>0.1004605918397042</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002096585386780465</v>
+        <v>0.003307034851308441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006433701386290832</v>
+        <v>0.0006871312750307693</v>
       </c>
       <c r="D3" t="n">
-        <v>2.479265742663204</v>
+        <v>2.846968009099133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05622613508614493</v>
+        <v>0.1131351918086638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008355991004943173</v>
+        <v>0.001960278071231235</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003357571673066612</v>
+        <v>0.004653791631385649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1001905421296385</v>
+        <v>0.1037676266910126</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003736332474924525</v>
+        <v>0.003954543822047401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001444033473920208</v>
+        <v>0.001198130236969148</v>
       </c>
       <c r="D4" t="n">
-        <v>1.668123128662512</v>
+        <v>2.79339073812521</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0665154353468555</v>
+        <v>0.1040061828226918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0009060699831735727</v>
+        <v>0.001606244321676731</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006566594966675479</v>
+        <v>0.006302843322418071</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1018302892177825</v>
+        <v>0.1044151356617516</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01125870718517311</v>
+        <v>0.00407239877590247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003344418885552435</v>
+        <v>0.005396225291348668</v>
       </c>
       <c r="D5" t="n">
-        <v>3.517001549289796</v>
+        <v>4.257078068066308</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09458201444407748</v>
+        <v>0.1723193048579394</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004703745370455524</v>
+        <v>-0.006504045938811448</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0178136689998907</v>
+        <v>0.01464884349061639</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1093526639280311</v>
+        <v>0.1045329906156066</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003594862653061924</v>
+        <v>-0.001051678515625418</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004248607003150161</v>
+        <v>0.003088548882111075</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.181590339607812</v>
+        <v>0.2455296224292698</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07375754654773362</v>
+        <v>0.09312728816764711</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.004732281695297018</v>
+        <v>-0.007105141763235187</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01192200700142087</v>
+        <v>0.005001784731984351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1016888193959199</v>
+        <v>0.09940891332407874</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00876852859107111</v>
+        <v>0.01550510382818961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004894371280356733</v>
+        <v>0.004606000361835207</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8227831804600985</v>
+        <v>2.489958274815371</v>
       </c>
       <c r="E7" t="n">
-        <v>0.110605291553067</v>
+        <v>0.1079401224957537</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0008242938031011805</v>
+        <v>0.006477481417596591</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0183613509852434</v>
+        <v>0.02453272623878263</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1068624853339291</v>
+        <v>0.1159656956678938</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009869480978140737</v>
+        <v>0.001059654252363901</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004837372719276076</v>
+        <v>0.004359771067385552</v>
       </c>
       <c r="D8" t="n">
-        <v>1.692786369697473</v>
+        <v>2.444207032686644</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1208621064108152</v>
+        <v>0.09455053724448069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003883746541285667</v>
+        <v>-0.007485366320995578</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0193505873021529</v>
+        <v>0.009604674825723383</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1079634377209988</v>
+        <v>0.1015202460920681</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005933409132903259</v>
+        <v>0.003008989665737437</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007215175663447918</v>
+        <v>0.004352115530011547</v>
       </c>
       <c r="D9" t="n">
-        <v>2.992229391224369</v>
+        <v>4.136476238427631</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1347819007092562</v>
+        <v>0.08223755077369965</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008208119123971964</v>
+        <v>-0.005521025306905928</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02007493738977849</v>
+        <v>0.0115390046383808</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1040273658757613</v>
+        <v>0.1034695815054416</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09809395674285802</v>
+        <v>-0.1004605918397042</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00049680731378803</v>
+        <v>0.000527022954333145</v>
       </c>
       <c r="D10" t="n">
-        <v>-218.1829518639617</v>
+        <v>-227.4639247139419</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09906768426841009</v>
+        <v>-0.1014935410910935</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09712022921730593</v>
+        <v>-0.09942764258831487</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04484420884934058</v>
+        <v>-0.04442532473687767</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008301602795880798</v>
+        <v>0.0005678472205993033</v>
       </c>
       <c r="D11" t="n">
-        <v>-87.99768868286277</v>
+        <v>-91.27527608493021</v>
       </c>
       <c r="E11" t="n">
-        <v>1.904552713363108e-10</v>
+        <v>1.441084660272689e-239</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04647133533187821</v>
+        <v>-0.04553828833574055</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04321708236680295</v>
+        <v>-0.04331236113801483</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05324974789351744</v>
+        <v>0.05603526710282648</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03397284502487496</v>
+        <v>-0.03672759417678563</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006861649245026288</v>
+        <v>0.0005408174003021226</v>
       </c>
       <c r="D12" t="n">
-        <v>-79.10198495644318</v>
+        <v>-81.7759672312019</v>
       </c>
       <c r="E12" t="n">
-        <v>1.946797866040948e-35</v>
+        <v>6.664794438156513e-175</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03531773000210383</v>
+        <v>-0.03778758013366455</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0326279600476461</v>
+        <v>-0.03566760821990672</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06412111171798306</v>
+        <v>0.06373299766291853</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0252342452223311</v>
+        <v>-0.03015856033216702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006224580240111563</v>
+        <v>0.0005364593400799126</v>
       </c>
       <c r="D13" t="n">
-        <v>-62.50428019951165</v>
+        <v>-67.73841855546699</v>
       </c>
       <c r="E13" t="n">
-        <v>1.144723384872349e-29</v>
+        <v>9.78634754646346e-112</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02645425907822476</v>
+        <v>-0.03121000462118562</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02401423136643743</v>
+        <v>-0.02910711604314841</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07285971152052692</v>
+        <v>0.07030203150753714</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02005534765890222</v>
+        <v>-0.02537552840994219</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006070190706090034</v>
+        <v>0.0005296528292286494</v>
       </c>
       <c r="D14" t="n">
-        <v>-53.9503442550001</v>
+        <v>-58.15847023597578</v>
       </c>
       <c r="E14" t="n">
-        <v>1.840139101163723e-78</v>
+        <v>5.205067374770927e-100</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02124510068313133</v>
+        <v>-0.02641363213846376</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01886559463467309</v>
+        <v>-0.02433742468142062</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07803860908395581</v>
+        <v>0.07508506342976196</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01569468220469097</v>
+        <v>-0.02056546948888888</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005962386375099735</v>
+        <v>0.0005182423218737916</v>
       </c>
       <c r="D15" t="n">
-        <v>-44.27123054175959</v>
+        <v>-47.63186818046614</v>
       </c>
       <c r="E15" t="n">
-        <v>1.317155125655248e-07</v>
+        <v>1.068937199555118e-57</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01686330590226877</v>
+        <v>-0.02158120896136472</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01452605850711317</v>
+        <v>-0.01954973001641304</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08239927453816706</v>
+        <v>0.07989512235081528</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01460480334155488</v>
+        <v>-0.01900150011553759</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005951079454677329</v>
+        <v>0.0005181073009009701</v>
       </c>
       <c r="D16" t="n">
-        <v>-41.05663540327294</v>
+        <v>-44.61521563059165</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0001951048819665571</v>
+        <v>8.078303077197443e-29</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01577121097624246</v>
+        <v>-0.02001697495591036</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0134383957068673</v>
+        <v>-0.01798602527516482</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08348915340130314</v>
+        <v>0.08145909172416656</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01479829100638238</v>
+        <v>-0.01921018370642768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005985832914485713</v>
+        <v>0.0005260916943775325</v>
       </c>
       <c r="D17" t="n">
-        <v>-42.76001157318437</v>
+        <v>-45.91974358857142</v>
       </c>
       <c r="E17" t="n">
-        <v>3.141664115688989e-18</v>
+        <v>6.235332104130171e-30</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01597150956612792</v>
+        <v>-0.02024130771710513</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01362507244663685</v>
+        <v>-0.01817905969575022</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08329566573647564</v>
+        <v>0.08125040813327647</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01180063871612091</v>
+        <v>-0.01639033222977163</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0006029509276619404</v>
+        <v>0.0005281803395407143</v>
       </c>
       <c r="D18" t="n">
-        <v>-34.50175945168449</v>
+        <v>-37.58699665859961</v>
       </c>
       <c r="E18" t="n">
-        <v>1.681921628520686e-16</v>
+        <v>1.457820508874918e-29</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01298241806673647</v>
+        <v>-0.0174255499212099</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01061885936550535</v>
+        <v>-0.01535511453833336</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08629331802673711</v>
+        <v>0.08407025960993253</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009701550481288632</v>
+        <v>-0.01399164191580619</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006019723660431902</v>
+        <v>0.0005265853866449889</v>
       </c>
       <c r="D19" t="n">
-        <v>-27.72222570072581</v>
+        <v>-30.35619734653763</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04632732530615839</v>
+        <v>1.766794825231323e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01088141204016686</v>
+        <v>-0.01502373354519095</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.008521688922410403</v>
+        <v>-0.01295955028642143</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08839240626156938</v>
+        <v>0.08646894992389796</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.008032287878410796</v>
+        <v>-0.01137603711782743</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006145504994456182</v>
+        <v>0.0005366453523068269</v>
       </c>
       <c r="D20" t="n">
-        <v>-22.61872265071058</v>
+        <v>-24.00043470868053</v>
       </c>
       <c r="E20" t="n">
-        <v>6.71871974089773e-06</v>
+        <v>2.875638659268953e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.009236802584384711</v>
+        <v>-0.0124278459819026</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.006827773172436889</v>
+        <v>-0.01032422825375226</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09006166886444722</v>
+        <v>0.08908455472187672</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.005584451525468486</v>
+        <v>-0.007935360838577946</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006400550324503538</v>
+        <v>0.0005457402799975373</v>
       </c>
       <c r="D21" t="n">
-        <v>-14.96043862262047</v>
+        <v>-14.31661059141448</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02277132466252779</v>
+        <v>0.05140731580885608</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.006838956609867467</v>
+        <v>-0.009004995490475785</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.004329946441069502</v>
+        <v>-0.006865726186680105</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09250950521738953</v>
+        <v>0.09252523100112621</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.002467335563972208</v>
+        <v>-0.004961005336988358</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0007287223570986099</v>
+        <v>0.0005399685770086923</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.604089954976807</v>
+        <v>-7.532731909831845</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04662833454583212</v>
+        <v>0.001274357673073793</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.003895637640006719</v>
+        <v>-0.006019327623297608</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001039033487937697</v>
+        <v>-0.003902683050679109</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09562662117888582</v>
+        <v>0.0954995865027158</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00503613637582422</v>
+        <v>-0.004588107358103766</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005112007405269867</v>
+        <v>0.0005435004362545718</v>
       </c>
       <c r="D23" t="n">
-        <v>-9.390414256769018</v>
+        <v>-8.034046177798697</v>
       </c>
       <c r="E23" t="n">
-        <v>1.019289903783663e-08</v>
+        <v>0.05597286504747941</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006038074584400107</v>
+        <v>-0.005653351982435841</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004034198167248333</v>
+        <v>-0.003522862733771692</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09305782036703381</v>
+        <v>0.09587248448160039</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.00415510939198079</v>
+        <v>-0.003416660293973077</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005077619555907203</v>
+        <v>0.0005366767323849262</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.322245901547114</v>
+        <v>-6.307795714865903</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01834297707943118</v>
+        <v>0.01087802343498591</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005150307678227482</v>
+        <v>-0.004468530654085625</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003159911105734098</v>
+        <v>-0.002364789933860529</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09393884735087724</v>
+        <v>0.09704393154573107</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002965001684836056</v>
+        <v>-0.002582042211243518</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004984298957980975</v>
+        <v>0.00053052020690769</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.474408928284702</v>
+        <v>-4.819723238653041</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1234674631563146</v>
+        <v>0.1550396234709005</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003941909419209885</v>
+        <v>-0.003621845961179682</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001988093950462227</v>
+        <v>-0.001542238461307356</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09512895505802196</v>
+        <v>0.09787854962846064</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01689858836606458</v>
+        <v>0.008142069942057413</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001559237756845363</v>
+        <v>0.002254813530606433</v>
       </c>
       <c r="D26" t="n">
-        <v>20.10854211153268</v>
+        <v>16.55303686201798</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02323030177506833</v>
+        <v>0.09380230645330019</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01384252851717928</v>
+        <v>0.003722703412702169</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01995464821494989</v>
+        <v>0.01256143647141266</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1149925451089226</v>
+        <v>0.1086026617817616</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year19final.xlsx
+++ b/hourly datasets/cap_gen_year19final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,579 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1004605918397042</v>
+        <v>0.1427768609985459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003307034851308441</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006871312750307693</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.846968009099133</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1131351918086638</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001960278071231235</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.004653791631385649</v>
-      </c>
+        <v>0.1201125801248804</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1037676266910126</v>
+        <v>0.2628894411234263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003954543822047401</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001198130236969148</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.79339073812521</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1040061828226918</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.001606244321676731</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.006302843322418071</v>
-      </c>
+        <v>0.1345245903344197</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1044151356617516</v>
+        <v>0.2773014513329656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00407239877590247</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.005396225291348668</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.257078068066308</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1723193048579394</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.006504045938811448</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01464884349061639</v>
-      </c>
+        <v>0.04082823852313695</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1045329906156066</v>
+        <v>0.1836050995216829</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001051678515625418</v>
+        <v>0.02442434839364534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003088548882111075</v>
+        <v>0.001347420401261707</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2455296224292698</v>
+        <v>4.490885677970139</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09312728816764711</v>
+        <v>0.02328048202271919</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.007105141763235187</v>
+        <v>0.02147696303402566</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005001784731984351</v>
+        <v>0.02737173375326519</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09940891332407874</v>
+        <v>0.1672012093921912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01550510382818961</v>
+        <v>0.0123968289544552</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004606000361835207</v>
+        <v>0.0007351147703722615</v>
       </c>
       <c r="D7" t="n">
-        <v>2.489958274815371</v>
+        <v>3.827152680758299</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1079401224957537</v>
+        <v>0.002723233057951899</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006477481417596591</v>
+        <v>0.01095436150362702</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02453272623878263</v>
+        <v>0.01383929640528337</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1159656956678938</v>
+        <v>0.1551736899530011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001059654252363901</v>
+        <v>0.00691208406655822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004359771067385552</v>
+        <v>0.0006323112961855402</v>
       </c>
       <c r="D8" t="n">
-        <v>2.444207032686644</v>
+        <v>0.597600572170172</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09455053724448069</v>
+        <v>0.0008230035675289674</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.007485366320995578</v>
+        <v>0.005671924468091925</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009604674825723383</v>
+        <v>0.008152243665024423</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1015202460920681</v>
+        <v>0.1496889450651041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003008989665737437</v>
+        <v>0.004655395137204621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004352115530011547</v>
+        <v>0.0005620207216278831</v>
       </c>
       <c r="D9" t="n">
-        <v>4.136476238427631</v>
+        <v>0.4567543474976534</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08223755077369965</v>
+        <v>0.0008497745807147463</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005521025306905928</v>
+        <v>0.003553521727145016</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0115390046383808</v>
+        <v>0.005757268547264232</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1034695815054416</v>
+        <v>0.1474322561357505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1004605918397042</v>
+        <v>0.004365495277159528</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000527022954333145</v>
+        <v>0.0005260321263585836</v>
       </c>
       <c r="D10" t="n">
-        <v>-227.4639247139419</v>
+        <v>0.349195425476565</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5.179347671944092e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1014935410910935</v>
+        <v>0.003334168462875954</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09942764258831487</v>
+        <v>0.005396822091442956</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1471423562757054</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04442532473687767</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005678472205993033</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-91.27527608493021</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.441084660272689e-239</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04553828833574055</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04331236113801483</v>
-      </c>
+        <v>0.02846753518794462</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05603526710282648</v>
+        <v>0.1712443961864905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03672759417678563</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005408174003021226</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-81.7759672312019</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.664794438156513e-175</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03778758013366455</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03566760821990672</v>
-      </c>
+        <v>0.05462139022725999</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06373299766291853</v>
+        <v>0.1973982512258059</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03015856033216702</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005364593400799126</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-67.73841855546699</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.78634754646346e-112</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03121000462118562</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.02910711604314841</v>
-      </c>
+        <v>0.07424180316620456</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.07030203150753714</v>
+        <v>0.2170186641647505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02537552840994219</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005296528292286494</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-58.15847023597578</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.205067374770927e-100</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02641363213846376</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02433742468142062</v>
-      </c>
+        <v>0.08150211581890736</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07508506342976196</v>
+        <v>0.2242789768174533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02056546948888888</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005182423218737916</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-47.63186818046614</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.068937199555118e-57</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02158120896136472</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.01954973001641304</v>
-      </c>
+        <v>0.08805799429808267</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07989512235081528</v>
+        <v>0.2308348552966286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01900150011553759</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0005181073009009701</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-44.61521563059165</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.078303077197443e-29</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02001697495591036</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.01798602527516482</v>
-      </c>
+        <v>0.0936502871204363</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08145909172416656</v>
+        <v>0.2364271481189822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01921018370642768</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005260916943775325</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-45.91974358857142</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.235332104130171e-30</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02024130771710513</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01817905969575022</v>
-      </c>
+        <v>0.09633731413304795</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08125040813327647</v>
+        <v>0.2391141751315939</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01639033222977163</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005281803395407143</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-37.58699665859961</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.457820508874918e-29</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.0174255499212099</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01535511453833336</v>
-      </c>
+        <v>-0.1427768609985459</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08407025960993253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01399164191580619</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005265853866449889</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-30.35619734653763</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.766794825231323e-07</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01502373354519095</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01295955028642143</v>
-      </c>
+        <v>0.09867340885726941</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08646894992389796</v>
+        <v>0.2414502698558153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01137603711782743</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005366453523068269</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-24.00043470868053</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.875638659268953e-05</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.0124278459819026</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.01032422825375226</v>
-      </c>
+        <v>0.1008688652110818</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.08908455472187672</v>
+        <v>0.2436457262096277</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007935360838577946</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0005457402799975373</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-14.31661059141448</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.05140731580885608</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.009004995490475785</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.006865726186680105</v>
-      </c>
+        <v>0.1054767835149027</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09252523100112621</v>
+        <v>0.2482536445134487</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.004961005336988358</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0005399685770086923</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-7.532731909831845</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.001274357673073793</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.006019327623297608</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.003902683050679109</v>
-      </c>
+        <v>0.1107537465615826</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.0954995865027158</v>
+        <v>0.2535306075601285</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004588107358103766</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005435004362545718</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-8.034046177798697</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.05597286504747941</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.005653351982435841</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.003522862733771692</v>
-      </c>
+        <v>0.1129006985809584</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09587248448160039</v>
+        <v>0.2556775595795043</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003416660293973077</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0005366767323849262</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-6.307795714865903</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.01087802343498591</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.004468530654085625</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.002364789933860529</v>
-      </c>
+        <v>0.1181139296970284</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.09704393154573107</v>
+        <v>0.2608907906955743</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002582042211243518</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.00053052020690769</v>
+        <v>0.1201038776932903</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>-4.819723238653041</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1550396234709005</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.003621845961179682</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.001542238461307356</v>
-      </c>
+        <v>336525077431.1128</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.09787854962846064</v>
+        <v>0.2628807386918363</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1232410921762626</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2660179531748085</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1275509003539204</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.006230966588080339</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-126993597833.0402</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.04051276149486892</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1152895788275021</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1398122218803394</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2703277613524664</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1315876917807424</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.005940332849768247</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2398550021013.003</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.06769601450729003</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1196525082247402</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1435228753367423</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2743645527792883</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.008142069942057413</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.002254813530606433</v>
-      </c>
-      <c r="D26" t="n">
-        <v>16.55303686201798</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.09380230645330019</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.003722703412702169</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.01256143647141266</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1086026617817616</v>
+      <c r="B29" t="n">
+        <v>0.007174418798175943</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.000435494745541304</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.02150300891624</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.009796912029205861</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.006320447106347367</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00802839049000445</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1499512797967218</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year19final.xlsx
+++ b/hourly datasets/cap_gen_year19final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1427768609985459</v>
+        <v>0.1131786086946073</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1201125801248804</v>
+        <v>0.1218613636993578</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2628894411234263</v>
+        <v>0.235039972393965</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1345245903344197</v>
+        <v>0.1375932818981117</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2773014513329656</v>
+        <v>0.2507718905927189</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04082823852313695</v>
+        <v>0.04878831074351646</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1836050995216829</v>
+        <v>0.1619669194381237</v>
       </c>
     </row>
     <row r="6">
@@ -554,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02442434839364534</v>
+        <v>0.0343649643497862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001347420401261707</v>
+        <v>0.002158421334054636</v>
       </c>
       <c r="D6" t="n">
-        <v>4.490885677970139</v>
+        <v>5.202212969087995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02328048202271919</v>
+        <v>0.02335440618728778</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02147696303402566</v>
+        <v>0.03013220212614183</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02737173375326519</v>
+        <v>0.03859772657343079</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1672012093921912</v>
+        <v>0.1475435730443935</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +582,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0123968289544552</v>
+        <v>0.02359404533206398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007351147703722615</v>
+        <v>0.002039481093661821</v>
       </c>
       <c r="D7" t="n">
-        <v>3.827152680758299</v>
+        <v>4.688935704704987</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002723233057951899</v>
+        <v>0.005642390157575884</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01095436150362702</v>
+        <v>0.01959212637235279</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01383929640528337</v>
+        <v>0.02759596429177455</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1551736899530011</v>
+        <v>0.1367726540266712</v>
       </c>
     </row>
     <row r="8">
@@ -610,25 +610,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00691208406655822</v>
+        <v>0.01941021750111112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006323112961855402</v>
+        <v>0.001461175360400451</v>
       </c>
       <c r="D8" t="n">
-        <v>0.597600572170172</v>
+        <v>1.748050355832855</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0008230035675289674</v>
+        <v>0.003696734588197441</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005671924468091925</v>
+        <v>0.01654507921841213</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008152243665024423</v>
+        <v>0.02227535578380962</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1496889450651041</v>
+        <v>0.1325888261957184</v>
       </c>
     </row>
     <row r="9">
@@ -638,25 +638,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004655395137204621</v>
+        <v>0.0166185622620552</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005620207216278831</v>
+        <v>0.001610544705972097</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4567543474976534</v>
+        <v>1.564815158547401</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0008497745807147463</v>
+        <v>0.006230055483430611</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003553521727145016</v>
+        <v>0.01346043771353193</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005757268547264232</v>
+        <v>0.01977668681057825</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1474322561357505</v>
+        <v>0.1297971709566625</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +666,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004365495277159528</v>
+        <v>0.01714509198296621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005260321263585836</v>
+        <v>0.001629357016901622</v>
       </c>
       <c r="D10" t="n">
-        <v>0.349195425476565</v>
+        <v>1.51464351573503</v>
       </c>
       <c r="E10" t="n">
-        <v>5.179347671944092e-07</v>
+        <v>0.006553274137775946</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003334168462875954</v>
+        <v>0.01395018109562983</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005396822091442956</v>
+        <v>0.02034000287030291</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1471423562757054</v>
+        <v>0.1303237006775735</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02846753518794462</v>
+        <v>0.02984110674673522</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -702,7 +702,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1712443961864905</v>
+        <v>0.1430197154413425</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05462139022725999</v>
+        <v>0.05641442708176776</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -720,7 +720,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1973982512258059</v>
+        <v>0.169593035776375</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07424180316620456</v>
+        <v>0.07580404521182262</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -738,7 +738,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2170186641647505</v>
+        <v>0.1889826539064299</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08150211581890736</v>
+        <v>0.08310892516889606</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -756,7 +756,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2242789768174533</v>
+        <v>0.1962875338635033</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08805799429808267</v>
+        <v>0.0903514308826778</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -774,7 +774,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2308348552966286</v>
+        <v>0.203530039577285</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0936502871204363</v>
+        <v>0.09514804186755348</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -792,7 +792,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2364271481189822</v>
+        <v>0.2083266505621607</v>
       </c>
     </row>
     <row r="17">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09633731413304795</v>
+        <v>0.09795295822564463</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -810,7 +810,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2391141751315939</v>
+        <v>0.2111315669202519</v>
       </c>
     </row>
     <row r="18">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1427768609985459</v>
+        <v>-0.1131786086946073</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09867340885726941</v>
+        <v>0.100736314709637</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -846,7 +846,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2414502698558153</v>
+        <v>0.2139149234042443</v>
       </c>
     </row>
     <row r="20">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1008688652110818</v>
+        <v>0.1025697862965416</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -864,7 +864,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2436457262096277</v>
+        <v>0.2157483949911489</v>
       </c>
     </row>
     <row r="21">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1054767835149027</v>
+        <v>0.1063911053297102</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2482536445134487</v>
+        <v>0.2195697140243175</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1107537465615826</v>
+        <v>0.1124193032281466</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -900,7 +900,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.2535306075601285</v>
+        <v>0.2255979119227538</v>
       </c>
     </row>
     <row r="23">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1129006985809584</v>
+        <v>0.1128603529604227</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -918,7 +918,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.2556775595795043</v>
+        <v>0.22603896165503</v>
       </c>
     </row>
     <row r="24">
@@ -928,15 +928,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1181139296970284</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.1200310554705017</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.006643996483768277</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1566163970759.371</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02919966064840934</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1069690528182446</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1330930581227591</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.2608907906955743</v>
+        <v>0.2332096641651089</v>
       </c>
     </row>
     <row r="25">
@@ -946,21 +956,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1201038776932903</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1211818174852429</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.006686943135642252</v>
       </c>
       <c r="D25" t="n">
-        <v>336525077431.1128</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>1509254108728.727</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03270129652224789</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1080363451759315</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.134327289794554</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2628807386918363</v>
+        <v>0.2343604261798502</v>
       </c>
     </row>
     <row r="26">
@@ -970,15 +984,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1232410921762626</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>0.1248624877034587</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.006532891869858073</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-126401847077.5133</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03369208752984119</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1120239103561863</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1377010650507302</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2660179531748085</v>
+        <v>0.2380410963980659</v>
       </c>
     </row>
     <row r="27">
@@ -988,25 +1012,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1275509003539204</v>
+        <v>0.1283076976407428</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006230966588080339</v>
+        <v>0.006600492221340341</v>
       </c>
       <c r="D27" t="n">
-        <v>-126993597833.0402</v>
+        <v>29.99144521546262</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04051276149486892</v>
+        <v>0.04451991747656985</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1152895788275021</v>
+        <v>0.1153362128591081</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1398122218803394</v>
+        <v>0.1412791824223772</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2703277613524664</v>
+        <v>0.2414863063353501</v>
       </c>
     </row>
     <row r="28">
@@ -1016,25 +1040,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1315876917807424</v>
+        <v>0.1321520855296657</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005940332849768247</v>
+        <v>0.006628135629196968</v>
       </c>
       <c r="D28" t="n">
-        <v>2398550021013.003</v>
+        <v>2031777523345.456</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06769601450729003</v>
+        <v>0.07209140588759202</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1196525082247402</v>
+        <v>0.1191340085878469</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1435228753367423</v>
+        <v>0.145170162471484</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2743645527792883</v>
+        <v>0.245330694224273</v>
       </c>
     </row>
     <row r="29">
@@ -1044,25 +1068,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007174418798175943</v>
+        <v>0.0206156902622914</v>
       </c>
       <c r="C29" t="n">
-        <v>0.000435494745541304</v>
+        <v>0.001483712743870398</v>
       </c>
       <c r="D29" t="n">
-        <v>1.02150300891624</v>
+        <v>2.424025198025625</v>
       </c>
       <c r="E29" t="n">
-        <v>0.009796912029205861</v>
+        <v>0.01290611937003616</v>
       </c>
       <c r="F29" t="n">
-        <v>0.006320447106347367</v>
+        <v>0.01770573049253632</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00802839049000445</v>
+        <v>0.02352565003204622</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1499512797967218</v>
+        <v>0.1337942989568986</v>
       </c>
     </row>
   </sheetData>
